--- a/Assignment 5/Trilateration.xlsx
+++ b/Assignment 5/Trilateration.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny Yang Xu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny Yang Xu\Documents\Yang Xu\GitProjects\3SK3\Assignment 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5265A7-72A1-4BB7-B6DC-966B6D5F76F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064322A5-9C76-4974-85A0-26FD5F8F8B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3420" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{737EBABF-E4BE-4E6E-BF5C-2ADE669B676B}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{737EBABF-E4BE-4E6E-BF5C-2ADE669B676B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -984,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA62332-6D4F-43E6-9932-A64B6EE5A213}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1490,6 +1491,438 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F97A9C-69A6-4D42-A392-1B030236EF6E}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>499.27906065181799</v>
+      </c>
+      <c r="B1">
+        <v>3639.3340052920698</v>
+      </c>
+      <c r="C1">
+        <v>1499.2790606518099</v>
+      </c>
+      <c r="D1">
+        <v>4499.2790606518101</v>
+      </c>
+      <c r="E1">
+        <v>4300.4416941731297</v>
+      </c>
+      <c r="F1">
+        <v>2914.75500807446</v>
+      </c>
+      <c r="G1">
+        <v>3604.8303361158</v>
+      </c>
+      <c r="H1">
+        <v>6927.4822909273198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>941.89588086566903</v>
+      </c>
+      <c r="B2">
+        <v>2877.7337774376001</v>
+      </c>
+      <c r="C2">
+        <v>1698.4977676599999</v>
+      </c>
+      <c r="D2">
+        <v>3698.4977676600001</v>
+      </c>
+      <c r="E2">
+        <v>4373.4263385054801</v>
+      </c>
+      <c r="F2">
+        <v>2594.6487648094399</v>
+      </c>
+      <c r="G2">
+        <v>2971.7115171237101</v>
+      </c>
+      <c r="H2">
+        <v>6497.7284913687699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1677.8770666108801</v>
+      </c>
+      <c r="B3">
+        <v>2148.6626605452402</v>
+      </c>
+      <c r="C3">
+        <v>2194.7428251329902</v>
+      </c>
+      <c r="D3">
+        <v>2901.5716051868599</v>
+      </c>
+      <c r="E3">
+        <v>4590.6891674203598</v>
+      </c>
+      <c r="F3">
+        <v>2503.5708058262198</v>
+      </c>
+      <c r="G3">
+        <v>2442.8827283336</v>
+      </c>
+      <c r="H3">
+        <v>6146.4882034817401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2453.4860329527301</v>
+      </c>
+      <c r="B4">
+        <v>1488.56277325833</v>
+      </c>
+      <c r="C4">
+        <v>2832.1502381434598</v>
+      </c>
+      <c r="D4">
+        <v>2101.9558985264798</v>
+      </c>
+      <c r="E4">
+        <v>4927.4000409363798</v>
+      </c>
+      <c r="F4">
+        <v>2659.0219496437599</v>
+      </c>
+      <c r="G4">
+        <v>2090.01720030859</v>
+      </c>
+      <c r="H4">
+        <v>5880.73128120611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3241.11980395398</v>
+      </c>
+      <c r="B5">
+        <v>1046.3235067047001</v>
+      </c>
+      <c r="C5">
+        <v>3536.4122652281098</v>
+      </c>
+      <c r="D5">
+        <v>1302.29285581365</v>
+      </c>
+      <c r="E5">
+        <v>5363.2629172857296</v>
+      </c>
+      <c r="F5">
+        <v>3025.5361473798398</v>
+      </c>
+      <c r="G5">
+        <v>2012.2679800378301</v>
+      </c>
+      <c r="H5">
+        <v>5715.4355986479304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4029.9897427701999</v>
+      </c>
+      <c r="B6">
+        <v>1116.8948573708201</v>
+      </c>
+      <c r="C6">
+        <v>4270.8627412796905</v>
+      </c>
+      <c r="D6">
+        <v>498.860868620931</v>
+      </c>
+      <c r="E6">
+        <v>5872.5309308562901</v>
+      </c>
+      <c r="F6">
+        <v>3534.3947745536698</v>
+      </c>
+      <c r="G6">
+        <v>2234.9288461207202</v>
+      </c>
+      <c r="H6">
+        <v>5655.7151181133104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3997.00414534218</v>
+      </c>
+      <c r="B7">
+        <v>1183.18854929746</v>
+      </c>
+      <c r="C7">
+        <v>4144.24804313198</v>
+      </c>
+      <c r="D7">
+        <v>636.06676433695804</v>
+      </c>
+      <c r="E7">
+        <v>5710.6471654854904</v>
+      </c>
+      <c r="F7">
+        <v>3260.7198840565702</v>
+      </c>
+      <c r="G7">
+        <v>2267.3176789137801</v>
+      </c>
+      <c r="H7">
+        <v>5377.2039594231501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4011.2874559216302</v>
+      </c>
+      <c r="B8">
+        <v>1374.82594038207</v>
+      </c>
+      <c r="C8">
+        <v>4060.8413327447101</v>
+      </c>
+      <c r="D8">
+        <v>943.45134510098399</v>
+      </c>
+      <c r="E8">
+        <v>5580.3758032167998</v>
+      </c>
+      <c r="F8">
+        <v>3023.2965234615099</v>
+      </c>
+      <c r="G8">
+        <v>2374.9216493028998</v>
+      </c>
+      <c r="H8">
+        <v>5122.5526218415998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4063.2537996482001</v>
+      </c>
+      <c r="B9">
+        <v>1642.5876454844799</v>
+      </c>
+      <c r="C9">
+        <v>4013.6999228251202</v>
+      </c>
+      <c r="D9">
+        <v>1302.4656987988101</v>
+      </c>
+      <c r="E9">
+        <v>5474.2113069205898</v>
+      </c>
+      <c r="F9">
+        <v>2820.2662595198799</v>
+      </c>
+      <c r="G9">
+        <v>2540.1812068887102</v>
+      </c>
+      <c r="H9">
+        <v>4885.0879450922903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4150.0374713300098</v>
+      </c>
+      <c r="B10">
+        <v>1953.4658983860199</v>
+      </c>
+      <c r="C10">
+        <v>4002.7935735402202</v>
+      </c>
+      <c r="D10">
+        <v>1677.8492302157199</v>
+      </c>
+      <c r="E10">
+        <v>5392.2765575691301</v>
+      </c>
+      <c r="F10">
+        <v>2658.6098199089902</v>
+      </c>
+      <c r="G10">
+        <v>2751.08918576521</v>
+      </c>
+      <c r="H10">
+        <v>4666.3052846679402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4275.3691413179404</v>
+      </c>
+      <c r="B11">
+        <v>2294.6551161370899</v>
+      </c>
+      <c r="C11">
+        <v>4034.4961428084498</v>
+      </c>
+      <c r="D11">
+        <v>2064.9200814680098</v>
+      </c>
+      <c r="E11">
+        <v>5341.9063946748302</v>
+      </c>
+      <c r="F11">
+        <v>2552.8770254555702</v>
+      </c>
+      <c r="G11">
+        <v>3003.3672686591699</v>
+      </c>
+      <c r="H11">
+        <v>4475.5032236587504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4273.4759404377701</v>
+      </c>
+      <c r="B12">
+        <v>2249.7481924338699</v>
+      </c>
+      <c r="C12">
+        <v>4032.6728473246699</v>
+      </c>
+      <c r="D12">
+        <v>2064.2805606484999</v>
+      </c>
+      <c r="E12">
+        <v>5273.82256596756</v>
+      </c>
+      <c r="F12">
+        <v>2551.77398102809</v>
+      </c>
+      <c r="G12">
+        <v>2934.58396681772</v>
+      </c>
+      <c r="H12">
+        <v>4383.2252167556999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4275.0078894374601</v>
+      </c>
+      <c r="B13">
+        <v>2209.6613721184299</v>
+      </c>
+      <c r="C13">
+        <v>4034.4141474909502</v>
+      </c>
+      <c r="D13">
+        <v>2069.5584510896301</v>
+      </c>
+      <c r="E13">
+        <v>5207.93344442128</v>
+      </c>
+      <c r="F13">
+        <v>2555.6693038777198</v>
+      </c>
+      <c r="G13">
+        <v>2868.8669522503001</v>
+      </c>
+      <c r="H13">
+        <v>4292.5090440856102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4284.9091857581097</v>
+      </c>
+      <c r="B14">
+        <v>2179.5406703930698</v>
+      </c>
+      <c r="C14">
+        <v>4044.66315096689</v>
+      </c>
+      <c r="D14">
+        <v>2085.6532302853102</v>
+      </c>
+      <c r="E14">
+        <v>5149.2302576684497</v>
+      </c>
+      <c r="F14">
+        <v>2569.4860952840299</v>
+      </c>
+      <c r="G14">
+        <v>2811.30094572297</v>
+      </c>
+      <c r="H14">
+        <v>4208.3347336479601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4290.6506710857002</v>
+      </c>
+      <c r="B15">
+        <v>2147.0541358590999</v>
+      </c>
+      <c r="C15">
+        <v>4050.8889006065301</v>
+      </c>
+      <c r="D15">
+        <v>2099.96308050071</v>
+      </c>
+      <c r="E15">
+        <v>5085.2359345371597</v>
+      </c>
+      <c r="F15">
+        <v>2580.6606606135001</v>
+      </c>
+      <c r="G15">
+        <v>2749.5084974742199</v>
+      </c>
+      <c r="H15">
+        <v>4118.2151368955101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4299.1783605263399</v>
+      </c>
+      <c r="B16">
+        <v>2119.3360705646701</v>
+      </c>
+      <c r="C16">
+        <v>4060.0349293230001</v>
+      </c>
+      <c r="D16">
+        <v>2119.3360705646701</v>
+      </c>
+      <c r="E16">
+        <v>5022.9535375654696</v>
+      </c>
+      <c r="F16">
+        <v>2596.09193835834</v>
+      </c>
+      <c r="G16">
+        <v>2690.5981305722798</v>
+      </c>
+      <c r="H16">
+        <v>4029.1446011542998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC604612-107E-46A0-9EDD-B61089C53CBA}">
   <dimension ref="A1:D17"/>
   <sheetViews>

--- a/Assignment 5/Trilateration.xlsx
+++ b/Assignment 5/Trilateration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny Yang Xu\Documents\Yang Xu\GitProjects\3SK3\Assignment 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064322A5-9C76-4974-85A0-26FD5F8F8B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931EE4EF-8029-4A0E-9276-59DC5483FA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{737EBABF-E4BE-4E6E-BF5C-2ADE669B676B}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{737EBABF-E4BE-4E6E-BF5C-2ADE669B676B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>t (seconds)</t>
   </si>
@@ -99,11 +99,25 @@
   <si>
     <t>r8(m)</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,17 +158,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1494,7 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F97A9C-69A6-4D42-A392-1B030236EF6E}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
@@ -1924,15 +1953,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC604612-107E-46A0-9EDD-B61089C53CBA}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1945,134 +1979,383 @@
       <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5">
+        <v>-2.3240188921409701</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-0.70426622022605201</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2.2051405823131001</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>796.93400372494705</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-4.1405247448562097</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5.5396005292890997</v>
+      </c>
+      <c r="F3">
+        <v>800</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>1600.99068133114</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-0.91836813120946603</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-1.4556680277761</v>
+      </c>
+      <c r="F4">
+        <v>1600</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>2400.5249981970401</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.4974269845380102</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-2.4540455571014599</v>
+      </c>
+      <c r="F5">
+        <v>2400</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>80</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>3199.0395247184701</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-2.8609708690642601</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-0.901576093313183</v>
+      </c>
+      <c r="F6">
+        <v>3200</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>3999.0262619907799</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.39349115293241599</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.9137116849509699</v>
+      </c>
+      <c r="F7">
+        <v>4000</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>120</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>4001.0875020196299</v>
+      </c>
+      <c r="C8" s="4">
+        <v>401.16018746954398</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-0.84412487512020296</v>
+      </c>
+      <c r="F8">
+        <v>4000</v>
+      </c>
+      <c r="G8">
+        <v>400</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>140</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>4001.7798202457602</v>
+      </c>
+      <c r="C9" s="4">
+        <v>799.97861985610803</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-6.9643190229534399E-2</v>
+      </c>
+      <c r="F9">
+        <v>4000</v>
+      </c>
+      <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>160</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>3999.45579887452</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1198.57565218277</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-1.6779390843541599</v>
+      </c>
+      <c r="F10">
+        <v>4000</v>
+      </c>
+      <c r="G10">
+        <v>1200</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>180</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>4000.2749417366999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1600.83178555995</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-1.34672950516985</v>
+      </c>
+      <c r="F11">
+        <v>4000</v>
+      </c>
+      <c r="G11">
+        <v>1600</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>200</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>4000.8157134944499</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1999.6184983276501</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.23512675024643701</v>
+      </c>
+      <c r="F12">
+        <v>4000</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>220</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>3999.6800654731001</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1999.3344754549501</v>
+      </c>
+      <c r="D13" s="6">
+        <v>101.649234611773</v>
+      </c>
+      <c r="F13">
+        <v>4000</v>
+      </c>
+      <c r="G13">
+        <v>2000</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>240</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>4001.95793358335</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1996.81062721431</v>
+      </c>
+      <c r="D14" s="6">
+        <v>199.93631769902001</v>
+      </c>
+      <c r="F14">
+        <v>4000</v>
+      </c>
+      <c r="G14">
+        <v>2000</v>
+      </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>260</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>4002.4443575217301</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1998.2524688435301</v>
+      </c>
+      <c r="D15" s="6">
+        <v>299.18039444556302</v>
+      </c>
+      <c r="F15">
+        <v>4000</v>
+      </c>
+      <c r="G15">
+        <v>2000</v>
+      </c>
+      <c r="H15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>280</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>4000.5356091524</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1999.42666877805</v>
+      </c>
+      <c r="D16" s="6">
+        <v>400.04068663956002</v>
+      </c>
+      <c r="F16">
+        <v>4000</v>
+      </c>
+      <c r="G16">
+        <v>2000</v>
+      </c>
+      <c r="H16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>300</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="5">
+        <v>3998.31272284438</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1999.2051260289099</v>
+      </c>
+      <c r="D17" s="6">
+        <v>498.14690221262703</v>
+      </c>
+      <c r="F17">
+        <v>4000</v>
+      </c>
+      <c r="G17">
+        <v>2000</v>
+      </c>
+      <c r="H17">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
